--- a/q1_dataFiles/05_Standardfehler_Konfidenzintervalle.xlsx
+++ b/q1_dataFiles/05_Standardfehler_Konfidenzintervalle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00F1396-6F9D-40F0-9714-C1B3A346DEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFEE505-2DD1-44FE-B38A-7626022979F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -305,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2140,7 +2140,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9A16A4-C77A-4946-9E90-35E7A0CE6F61}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,8 +2854,7 @@
         <v>16.313059748782472</v>
       </c>
       <c r="G21" s="3">
-        <f>_xlfn.STDEV.S(B17:B66)</f>
-        <v>15.385972938534175</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3"/>
     </row>
